--- a/Tabela/Cabo Frio/Cabo Frio-9.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-9.xlsx
@@ -14,366 +14,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="120">
-  <si>
-    <t>pronto para morar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>R$ 298.573</t>
+    <t>na planta</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
     <t>R$ 178.000</t>
   </si>
   <si>
-    <t>R$ 204.999</t>
-  </si>
-  <si>
-    <t>R$ 170.000</t>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 180.000</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
+    <t>R$ 175.000</t>
+  </si>
+  <si>
+    <t>R$ 198.000</t>
   </si>
   <si>
     <t>R$ 250.000</t>
   </si>
   <si>
-    <t>R$ 370.000</t>
-  </si>
-  <si>
-    <t>R$ 149.997</t>
-  </si>
-  <si>
-    <t>destaque</t>
-  </si>
-  <si>
     <t>R$ 270.000</t>
   </si>
   <si>
-    <t>R$ 190.000</t>
-  </si>
-  <si>
-    <t>R$ 198.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 175.000</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 219.999</t>
-  </si>
-  <si>
-    <t>Estrutura Comercial Premium, Jamais Vista no Estado.</t>
-  </si>
-  <si>
-    <t>R$ 75.000</t>
-  </si>
-  <si>
-    <t>R$ 245.000</t>
-  </si>
-  <si>
-    <t>R$ 2.800.000</t>
+    <t>R$ 364.700</t>
+  </si>
+  <si>
+    <t>R$ 700.000</t>
+  </si>
+  <si>
+    <t>R$ 850.000</t>
+  </si>
+  <si>
+    <t>OBS: ( DEIXE SEU NÚMERO COM DDD ,A GENTE LIGA PRA VOCÊ )</t>
+  </si>
+  <si>
+    <t>R$ 162.000</t>
+  </si>
+  <si>
+    <t>Maravilhosa casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>AD- Casa no Gravata 1</t>
+  </si>
+  <si>
+    <t>deixe seu numero nossa equipe entrará em contato com você!</t>
+  </si>
+  <si>
+    <t>Zz- Já imaginou ter sua casa de praia nesse padrão ?</t>
+  </si>
+  <si>
+    <t>Z- Casa Disponível na planta em Unamar.</t>
+  </si>
+  <si>
+    <t>TBF- Venha conquistar seu imóvel com a imobiliária Confiança.</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>Vocês não imaginam o que uma bela vista pode proporcionar.</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>Imóvel completo no valor de R$170 mil avista estudamos proposta.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 170</t>
+  </si>
+  <si>
+    <t>Casa com 2 dormitórios, sala, banheiro, cozinha americana, área de serviço, área gourmet, lavabo e chuveirão.</t>
+  </si>
+  <si>
+    <t>Excelente Duplex com servidão, composto por 2 suites, sala, cozinha, banheiro, área de serviço, área gourmet com piscina, aproximadamente a 100 metros da Praia.</t>
+  </si>
+  <si>
+    <t>Casa á Venda em Unamar- Cabo Frio, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Imóvel com 2 quartos 1 suíte área gourmet churrasqueira chuveirão e piscina .</t>
+  </si>
+  <si>
+    <t>Excelente imóvel, com 2 quartos, sendo 1 suíte, sala ampla e cozinha americana linda e planejada para você, 2 banheiros, varanda, área de serviço espaçosa e arejada, área para chur...</t>
+  </si>
+  <si>
+    <t>A combinação entre inteligência, praticidade e bem-estar. A vida pensada em cada detalhe. Arquitetura e design conectados com as últimas tendências da vida contemporânea e o mais a...</t>
+  </si>
+  <si>
+    <t>Excelente duplex moderna com 2 quartos, área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 694 IPTU R$ 1.488</t>
+  </si>
+  <si>
+    <t>IPTU R$ 1.166</t>
+  </si>
+  <si>
+    <t>Maravilhosa casa com 2 quartos sendo 1 suíte, piscina e área gourmet em Unamar-Cabo Frio</t>
+  </si>
+  <si>
+    <t>Imóvel composto por :</t>
+  </si>
+  <si>
+    <t>Aqui em UNAMAR- CABO FRIO, temos os melhores Empreendimentos com o melhor Custo e Benefício pra você e sua Família .</t>
+  </si>
+  <si>
+    <t>Traz paz, tranquilidade, satisfação e muita alegria.</t>
+  </si>
+  <si>
+    <t>Casa localizada em um condomínio tranquilo em Unamar, perto do comércio e a 10 minutos da praia.</t>
+  </si>
+  <si>
+    <t>Imovel novo, fin...</t>
+  </si>
+  <si>
+    <t>Já pronta para morar</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>Sempre quis morar a poucos passos da Praia do Forte? Esta é a sua chance!!!</t>
+  </si>
+  <si>
+    <t>Com um espaço incrível, essa casa vai te proporcionar momentos ainda mais memoráveis com seus amigos e familiares!</t>
   </si>
   <si>
     <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
   </si>
   <si>
-    <t>Excelente casa de 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0462</t>
-  </si>
-  <si>
-    <t>condomínio R$ 170 IPTU R$ 400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 500 IPTU R$ 759</t>
-  </si>
-  <si>
-    <t>Bela casa 3 quartos e área gourmet em Unamar - Cabo Frio</t>
-  </si>
-  <si>
-    <t>condomínio R$ 150 IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>R$ 405.000</t>
-  </si>
-  <si>
-    <t>Linda casa pronta para morar com 2 quartos, área gourmet e piscina em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0413 / 3095</t>
-  </si>
-  <si>
-    <t>condomínio R$ 170</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0562</t>
-  </si>
-  <si>
-    <t>IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>R$ 195.000</t>
-  </si>
-  <si>
-    <t>Imóvel no condomínio verão vermelho tem 600 m² com 3 quartos e RGI</t>
-  </si>
-  <si>
-    <t>OTIMA CASA MOBILIADA PROXIMO A PRAIA DO PONTAL, LOCAL MARAVILHOSO.......</t>
-  </si>
-  <si>
-    <t>Linda casa de 1 quarto em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Linda casa de 2 quartos com área gourmet e piscina próximo à praia em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Imóvel de alto padrão de frente para o mar no foguete em Cabo Frio</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.292</t>
-  </si>
-  <si>
-    <t>Ampla casa com 500m² de área total com uma área de lazer extremamente confortável. Com 3 quartos, sendo duas suítes para acomodar sua família e amigos, sala ampla que pode ser divi...</t>
-  </si>
-  <si>
-    <t>Apartamento com ótima localização, próximo a Praia do Peró e Conchas, fármacias, padaria, mercados tudo pertinho, muito verde e tranquilidade. -</t>
-  </si>
-  <si>
-    <t>CASA LINEAR COMPOSTA POR 2 QUARTOS ENORMES SENDO 1 SUÍTE, SALA AMPLA COM COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO,TODA EM VARANDA AO REDOR, QUINTAL ENORME, AREA GOURMET...</t>
-  </si>
-  <si>
-    <t>CABO FRIO-BRAGA-OPORTUNIDADE !- À 3 QUADRAS DA PRAIA- PRÉDIO NOVO-COM 2 ELEVADORES-EXCELENTE APARTAMENTO-2º ANDAR,DE FRENTE ,SOL DA MANHÃ,COM ELEVADOR-AMPLA VARANDA,SALA 2 AMBIENTE...</t>
-  </si>
-  <si>
-    <t>Casa localizada em um condomínio tranquilo em Unamar, perto do comércio e a 10 minutos da praia.</t>
-  </si>
-  <si>
-    <t>COD: BRM0133</t>
-  </si>
-  <si>
-    <t>condomínio R$ 150 IPTU R$ 380</t>
-  </si>
-  <si>
-    <t>💢💢 EXCELENTES CONDIÇÕES!!! CASA EM CABO FRIO - UNAMAR!!! 💢💢</t>
-  </si>
-  <si>
-    <t>Na Quadra do Mar próximo às Avenidas Champagnat e Gil Veloso</t>
-  </si>
-  <si>
-    <t>Imóvel espetacular triplex com 5 suítes!</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis...</t>
+    <t>Valor de R$200 mil Avista, ou entrada de 60% + parcelas de R$1.500</t>
+  </si>
+  <si>
+    <t>➡️Com desconto para pagamento avista R$135 mil..</t>
+  </si>
+  <si>
+    <t>Valor de 135 Mil a vista</t>
+  </si>
+  <si>
+    <t>Essa linda vista pode ser sua!!!</t>
+  </si>
+  <si>
+    <t>- Localização: Unamar - PRONTA ENTREGA</t>
+  </si>
+  <si>
+    <t>3 quartos</t>
   </si>
   <si>
     <t>Com 03 quartos, sendo 02 suítes, banheiro social, sala, cozinha com 02 ambiente...</t>
   </si>
   <si>
-    <t>MAGDALA FURTADO IMOBILIARIA VENDE :</t>
-  </si>
-  <si>
-    <t>Cabo Frio. Unamar. Condomínio Verão Vermelho. Excelente Casa em condomínio fechado em área residencial de Unamar - Cabo Frio. Praia fica dentro do Condominio. Casa Linear, com 02 a...</t>
-  </si>
-  <si>
-    <t>Venha mora nesse paraíso que é tira o folego!!!</t>
-  </si>
-  <si>
-    <t>SUA OPORTUNIDADE CHEGOU. CASA TODA MOBILIADA,,,,BEM LOCALIZADA PROXIMA DA PRAIA DO PONTAL,,,COM COME...</t>
-  </si>
-  <si>
-    <t>Videomonitoramento das Áreas Comuns</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis...</t>
-  </si>
-  <si>
-    <t>Terreno com mais de 1300m2 e 1000 de área construída.</t>
-  </si>
-  <si>
-    <t>Cód: JMC-016</t>
+    <t>OBS: FINANCIAMENTO DIRETO COM O CONSTRUTOR / NÃO ACEITAMOS FINA...</t>
+  </si>
+  <si>
+    <t>Casa com 2 quartos, sala, banheiro social, cozinha, área de serviço, área gourmet com banheiro externo Piscina e garagem.</t>
+  </si>
+  <si>
+    <t>Terreno de 500m</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Rua Maria de Oliveira Mares Guia, Praia de Itaparica</t>
+  </si>
+  <si>
+    <t>PRONTO ENTREGA</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa própria na Região dos Lagos.🏡🏝</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>- 2 Quartos</t>
+  </si>
+  <si>
+    <t>Imóvel com:</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>Não aceitamos finaciamentos bancário</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Rua do VG, Aquariús</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>55 - 75 m²</t>
+  </si>
+  <si>
+    <t>Apartamento charmoso, muito confortável, bem arejado e à 100m da praia. Ao entrar no imóvel se de...</t>
+  </si>
+  <si>
+    <t>Logo na entrada, uma área de lazer espaçosa com piscina e...</t>
+  </si>
+  <si>
+    <t>- Sala</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo 1 suíte)</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>➡️Ou entrada de 60% e parcelas de R$1.500 por mês...</t>
+  </si>
+  <si>
+    <t>Valor do Imóvel: R$ 180 mil à vista.</t>
+  </si>
+  <si>
+    <t>LINDO DUPLEX DENTRO D...</t>
+  </si>
+  <si>
+    <t>- Dois quartos, sendo 1 suíte;</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
   </si>
   <si>
     <t>Nova California Tamoios, Cabo Frio</t>
   </si>
   <si>
-    <t>Peró, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>Avenida Vereador Antônio Ferreira dos Santos, Braga</t>
-  </si>
-  <si>
-    <t>CASA LINEAR COMPOSTA POR 2 QUARTOS (1 SUÍTE), SALA COM COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA GOURMET COM BANHEIRO E CHUVEIRÃO, PISCINA, ÁREA DE SERVIÇO E VAG...</t>
-  </si>
-  <si>
-    <t>🏠CASA COMPOSTA POR 2 QUARTOS ENORMES SENDO 1 SUÍTE, SALA AMPLA COM COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA...</t>
-  </si>
-  <si>
-    <t>Cód: JMC-037</t>
-  </si>
-  <si>
-    <t>Controle de Acess...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074.516</t>
-  </si>
-  <si>
-    <t>No prime...</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 1 suíte, sala, cozinha, 1 banheiro social, 2 varandas, área de serviço, quintal...</t>
-  </si>
-  <si>
-    <t>110 m²</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>130 m²</t>
-  </si>
-  <si>
-    <t>55 m²</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos sendo 1 suíte, sala, cozinha ,banheiro, área de serviço, área gourmet, piscina, cani...</t>
-  </si>
-  <si>
-    <t>Rua Apolo Dois, Verao Vermelho Tamoios</t>
-  </si>
-  <si>
-    <t>Imóvel composto por :</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Aquariús</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO 1 SUITE, SALA AMPLA, COZINHA...</t>
-  </si>
-  <si>
-    <t>70 m²</t>
+    <t>Rua Aurélia de Faria, Unamar</t>
+  </si>
+  <si>
+    <t>136 m²</t>
+  </si>
+  <si>
+    <t>Já imaginou ter sua casa de praia nesse padrão ? &lt;...</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>Cód: JMC-127</t>
+  </si>
+  <si>
+    <t>Para mais inform...</t>
+  </si>
+  <si>
+    <t>- Cozinha Americana</t>
+  </si>
+  <si>
+    <t>- Sem SPC</t>
+  </si>
+  <si>
+    <t>- Banheiro social;</t>
+  </si>
+  <si>
+    <t>Banheiro social</t>
+  </si>
+  <si>
+    <t>150 m²</t>
+  </si>
+  <si>
+    <t>57 m²</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Cód: JMC-004&lt;...</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>Praia do Forte, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Jardim Excelsior, Cabo Frio</t>
+  </si>
+  <si>
+    <t>69 m²</t>
+  </si>
+  <si>
+    <t>- Banheiro</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>❌Não possui RGI...</t>
+  </si>
+  <si>
+    <t>Aceitamos seu veículo co...</t>
+  </si>
+  <si>
+    <t>Long Beach Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>- Sala, cozinha, área...</t>
+  </si>
+  <si>
+    <t>Piscina</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da...</t>
+  </si>
+  <si>
+    <t>97 m²</t>
+  </si>
+  <si>
+    <t>277 m²</t>
+  </si>
+  <si>
+    <t>Rua Manoel Duarte, Aquariús</t>
+  </si>
+  <si>
+    <t>- Suíte</t>
+  </si>
+  <si>
+    <t>66 m²</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>Espaço gourmet com banheiro</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>73 m²</t>
+  </si>
+  <si>
+    <t>- Área de Serviço</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>155 m²</t>
-  </si>
-  <si>
-    <t>150 m²</t>
-  </si>
-  <si>
-    <t>75 m²</t>
-  </si>
-  <si>
-    <t>3 quartos</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>CASA COM 2 QUARTO, SENDO 1 SUÍTE, SALA COM COZINHA A...</t>
-  </si>
-  <si>
-    <t>Avenida Henrique Moscoso, Praia da Costa</t>
-  </si>
-  <si>
-    <t>Para informa...</t>
-  </si>
-  <si>
-    <t>86 m²</t>
-  </si>
-  <si>
-    <t>Foguete, Cabo Frio</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>34 - 166 m²</t>
-  </si>
-  <si>
-    <t>1000 m²</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>375 m²</t>
+    <t>- Garagem Aberta</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Casa Linear</t>
-  </si>
-  <si>
-    <t>250 m²</t>
-  </si>
-  <si>
-    <t>Cozin...</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>Casa composta de: 3 quartos sendo 1 suíte, sala, cozinha, banheiro so...</t>
-  </si>
-  <si>
-    <t>51 m²</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Rua Apolo Cinco, Unamar</t>
-  </si>
-  <si>
-    <t>Centro Hipico Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>170 m²</t>
+    <t>108 m²</t>
+  </si>
+  <si>
+    <t>- Varanda...</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>59 m²</t>
   </si>
 </sst>
 </file>
@@ -731,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -789,853 +816,900 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
       <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s">
-        <v>106</v>
-      </c>
-      <c r="O23" t="s">
-        <v>88</v>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
